--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -24,6 +24,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,10 +340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -349,6 +353,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/test1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -336,16 +336,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
     </row>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -24,10 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -358,6 +354,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -359,6 +359,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -364,6 +364,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -369,6 +369,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -374,6 +374,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -379,6 +379,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/test1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -336,45 +336,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/test1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -382,6 +382,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -356,6 +356,9 @@
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/test1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -385,6 +385,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -390,6 +390,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -26,8 +26,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>test</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -68,6 +76,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -335,11 +346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -395,6 +406,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -406,9 +402,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>0</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -24,10 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,10 +340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -407,7 +404,24 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239F26E3-F025-2148-9271-93F2CC26EE44}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -340,10 +340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -407,6 +407,11 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEV\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="578" yWindow="458" windowWidth="28223" windowHeight="17543" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -339,79 +339,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -420,12 +359,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239F26E3-F025-2148-9271-93F2CC26EE44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -353,6 +353,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\DEV\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/dev/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1B099-55BF-A94C-B92C-9B1D1E3D20DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="578" yWindow="458" windowWidth="28223" windowHeight="17543" tabRatio="500"/>
+    <workbookView xWindow="2420" yWindow="2300" windowWidth="28220" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -338,19 +339,89 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{9F465030-65EC-E148-B632-3F2A54593DA8}">
+  <we:reference id="9269fe91-d698-4781-a301-1c0f00660ec5" version="1.0.0.0" store="developer" storeType="Registry"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_XLWINGS_ADD</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_XLWINGS_ADD2</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_XLWINGS_ADD30</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{462A66F8-8BE5-C744-B832-C01FCD463E12}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -359,12 +430,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -340,10 +340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -351,6 +351,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
